--- a/statistics/HistoricalDistanceData/historical_distance/Q30635857-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q30635857-en.xlsx
@@ -31,34 +31,34 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Clipping from Reno Gazette-Journal</t>
+  </si>
+  <si>
+    <t>Clipping from The Daily Appeal</t>
+  </si>
+  <si>
+    <t>Clipping from The Pioche Record</t>
+  </si>
+  <si>
     <t>Clipping from Nevada State Journal</t>
   </si>
   <si>
-    <t>Clipping from The Daily Appeal</t>
-  </si>
-  <si>
-    <t>Clipping from Reno Gazette-Journal</t>
-  </si>
-  <si>
-    <t>Clipping from The Pioche Record</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.newspapers.com/clip/38564125/reno_gazettejournal/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20191106225212/https://www.newspapers.com/clip/38561653/the_daily_appeal/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/38561964/the_pioche_record/</t>
+  </si>
+  <si>
     <t>https://www.newspapers.com/clip/38561594/nevada_state_journal/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20191106225212/https://www.newspapers.com/clip/38561653/the_daily_appeal/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/38564125/reno_gazettejournal/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/38561964/the_pioche_record/</t>
   </si>
 </sst>
 </file>
